--- a/src/testBase/facebookData.xlsx
+++ b/src/testBase/facebookData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>firstName</t>
   </si>
@@ -66,6 +66,39 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>1234445</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vibs </t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>gskjfsk@gsudhsif</t>
+  </si>
+  <si>
+    <t>232323</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -110,10 +143,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -392,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,20 +470,46 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>1234445</v>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1992</v>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/testBase/facebookData.xlsx
+++ b/src/testBase/facebookData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>firstName</t>
   </si>
@@ -99,13 +100,28 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@yourstore.com</t>
+  </si>
+  <si>
+    <t>admin@yoursore.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +136,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,11 +164,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -518,4 +540,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>